--- a/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos antidepresivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2765</v>
+        <v>2820</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13211</v>
+        <v>12593</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02402608888619564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01012774265787157</v>
+        <v>0.01033014238490651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04839010034718177</v>
+        <v>0.04612598450483021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>21379</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13715</v>
+        <v>13437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31150</v>
+        <v>32034</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08196105832952563</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05257944565992376</v>
+        <v>0.05151474441880215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1194238400575174</v>
+        <v>0.1228109764644271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>27938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18747</v>
+        <v>18124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39381</v>
+        <v>39508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05233310878617479</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03511749538869806</v>
+        <v>0.03394923022960427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07376777399753756</v>
+        <v>0.07400638673029129</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>266451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259799</v>
+        <v>260417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270245</v>
+        <v>270190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9759739111138044</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9516098996528182</v>
+        <v>0.9538740154951698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9898722573421284</v>
+        <v>0.9896698576150935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -836,19 +836,19 @@
         <v>239459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229688</v>
+        <v>228804</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247123</v>
+        <v>247401</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9180389416704744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8805761599424827</v>
+        <v>0.8771890235355728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9474205543400762</v>
+        <v>0.9484852555811977</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>489</v>
@@ -857,19 +857,19 @@
         <v>505910</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>494467</v>
+        <v>494340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>515101</v>
+        <v>515724</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9476668912138252</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9262322260024622</v>
+        <v>0.9259936132697087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9648825046113019</v>
+        <v>0.9660507697703957</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1079</v>
+        <v>998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9921</v>
+        <v>9819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008015312221825584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002187820614598593</v>
+        <v>0.002023051382225167</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02012106971746418</v>
+        <v>0.01991377590442734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>29540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20423</v>
+        <v>20142</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41477</v>
+        <v>42567</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05861693046994448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04052501296532855</v>
+        <v>0.03996813224246617</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08230313480379328</v>
+        <v>0.08446741868566214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1003,19 +1003,19 @@
         <v>33492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23214</v>
+        <v>23797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46943</v>
+        <v>45515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03359206224161428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02328279211037055</v>
+        <v>0.02386766697509435</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04708266376917082</v>
+        <v>0.04565047932142242</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>489123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483154</v>
+        <v>483256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>491996</v>
+        <v>492077</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919846877781744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9798789302825356</v>
+        <v>0.9800862240955727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9978121793854013</v>
+        <v>0.9979769486177748</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -1053,19 +1053,19 @@
         <v>474409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462472</v>
+        <v>461382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483526</v>
+        <v>483807</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9413830695300555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9176968651962069</v>
+        <v>0.9155325813143379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9594749870346716</v>
+        <v>0.9600318677575339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>931</v>
@@ -1074,19 +1074,19 @@
         <v>963532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>950081</v>
+        <v>951509</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973810</v>
+        <v>973227</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9664079377583857</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9529173362308291</v>
+        <v>0.9543495206785776</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9767172078896293</v>
+        <v>0.9761323330249055</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3769</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11214</v>
+        <v>9937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01182075061356363</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003211929845909274</v>
+        <v>0.003175569325051715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0351694990922985</v>
+        <v>0.03116542534761049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>15209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9129</v>
+        <v>9064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24025</v>
+        <v>24989</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04534502405687055</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02721616387386279</v>
+        <v>0.02702338608449271</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07162827092292971</v>
+        <v>0.07450186788367882</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1220,19 +1220,19 @@
         <v>18978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11218</v>
+        <v>11726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29178</v>
+        <v>29030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02900731181160428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.017146679148743</v>
+        <v>0.01792218034599183</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04459670941563918</v>
+        <v>0.04437154228874723</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307632</v>
+        <v>308909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317822</v>
+        <v>317833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9881792493864364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648305009077017</v>
+        <v>0.9688345746523898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9967880701540908</v>
+        <v>0.9968244306749483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>320</v>
@@ -1270,19 +1270,19 @@
         <v>320203</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311387</v>
+        <v>310423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326283</v>
+        <v>326348</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9546549759431294</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.92837172907707</v>
+        <v>0.9254981321163211</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9727838361261372</v>
+        <v>0.9729766139155072</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -1291,19 +1291,19 @@
         <v>635280</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>625080</v>
+        <v>625228</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643040</v>
+        <v>642532</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9709926881883957</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9554032905843618</v>
+        <v>0.9556284577112519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9828533208512571</v>
+        <v>0.9820778196540078</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2862</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7355</v>
+        <v>8886</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007980045777022412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002402647343101819</v>
+        <v>0.002416048352750935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02050707243900583</v>
+        <v>0.02477437452406695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1416,19 +1416,19 @@
         <v>16682</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9925</v>
+        <v>10161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25779</v>
+        <v>25358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04491038164669077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02671791944449245</v>
+        <v>0.02735570417628875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06939905293779067</v>
+        <v>0.06826547818629233</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>19544</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12566</v>
+        <v>12375</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29174</v>
+        <v>29304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02676854709552468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01721049439723768</v>
+        <v>0.01694901894946745</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0399572166152977</v>
+        <v>0.04013539465507888</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>355809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>351316</v>
+        <v>349785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357809</v>
+        <v>357804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9920199542229776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9794929275609939</v>
+        <v>0.9752256254759331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975973526568982</v>
+        <v>0.997583951647249</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1487,19 +1487,19 @@
         <v>354774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>345677</v>
+        <v>346098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361531</v>
+        <v>361295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9550896183533092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9306009470622094</v>
+        <v>0.9317345218137081</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9732820805555078</v>
+        <v>0.9726442958237117</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1508,19 +1508,19 @@
         <v>710583</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>700953</v>
+        <v>700823</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>717561</v>
+        <v>717752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9732314529044753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9600427833847023</v>
+        <v>0.9598646053449211</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9827895056027623</v>
+        <v>0.9830509810505325</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9001</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4396</v>
+        <v>4444</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15256</v>
+        <v>16570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04427483616270067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02162448548538134</v>
+        <v>0.02185755998310254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0750406927667247</v>
+        <v>0.08149975644044606</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>23693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15751</v>
+        <v>15370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34686</v>
+        <v>34814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1140923052756113</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07584585316756116</v>
+        <v>0.07401353011942843</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1670279288517466</v>
+        <v>0.1676407316328652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1654,19 +1654,19 @@
         <v>32695</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23859</v>
+        <v>23093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45057</v>
+        <v>44690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07955390976548936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05805551240279504</v>
+        <v>0.05619127302863247</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1096352456978648</v>
+        <v>0.1087420445166317</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>194307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188052</v>
+        <v>186738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198912</v>
+        <v>198864</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9557251638372993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9249593072332755</v>
+        <v>0.918500243559554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9783755145146187</v>
+        <v>0.9781424400168974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>175</v>
@@ -1704,19 +1704,19 @@
         <v>183975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172982</v>
+        <v>172854</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191917</v>
+        <v>192298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8859076947243887</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8329720711482533</v>
+        <v>0.8323592683671348</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9241541468324387</v>
+        <v>0.9259864698805714</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>371</v>
@@ -1725,19 +1725,19 @@
         <v>378281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365919</v>
+        <v>366286</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>387117</v>
+        <v>387883</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9204460902345106</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8903647543021357</v>
+        <v>0.8912579554833688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9419444875972049</v>
+        <v>0.9438087269713676</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7175</v>
+        <v>8966</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007612649581973027</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02649450750264764</v>
+        <v>0.03310826668843842</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>9005</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4055</v>
+        <v>4073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16090</v>
+        <v>16917</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03237677477951893</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01457772312103367</v>
+        <v>0.0146429300517702</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05784714144306727</v>
+        <v>0.06082195594031806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1871,19 +1871,19 @@
         <v>11067</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5870</v>
+        <v>5035</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18499</v>
+        <v>18363</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02016011301483625</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01069325728995726</v>
+        <v>0.009171104298465137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03369797265255187</v>
+        <v>0.03345121590382041</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>268749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263636</v>
+        <v>261845</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1909,7 +1909,7 @@
         <v>0.9923873504180269</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9735054924973525</v>
+        <v>0.9668917333115677</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>269139</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262054</v>
+        <v>261227</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>274089</v>
+        <v>274071</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9676232252204811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.942152858556933</v>
+        <v>0.939178044059681</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9854222768789663</v>
+        <v>0.9853570699482297</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -1942,19 +1942,19 @@
         <v>537888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>530456</v>
+        <v>530592</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543085</v>
+        <v>543920</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9798398869851638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9663020273474485</v>
+        <v>0.9665487840961798</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9893067427100427</v>
+        <v>0.9908288957015349</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>11992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6580</v>
+        <v>6384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20498</v>
+        <v>19155</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01949826269375202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0106992583598581</v>
+        <v>0.01038045689936165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03332895277303556</v>
+        <v>0.03114453048755063</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2067,19 +2067,19 @@
         <v>47591</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36461</v>
+        <v>35726</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63573</v>
+        <v>61622</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07456828499034077</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05712870102984404</v>
+        <v>0.05597801528054058</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0996097964318748</v>
+        <v>0.09655228642392943</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -2088,19 +2088,19 @@
         <v>59583</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46797</v>
+        <v>46875</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75183</v>
+        <v>76020</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04754282496422747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03734054304287934</v>
+        <v>0.03740310466175603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05999060424094751</v>
+        <v>0.06065822623081792</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>603035</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>594529</v>
+        <v>595872</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>608447</v>
+        <v>608643</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.980501737306248</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9666710472269643</v>
+        <v>0.9688554695124497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9893007416401419</v>
+        <v>0.9896195431006385</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>573</v>
@@ -2138,19 +2138,19 @@
         <v>590628</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>574646</v>
+        <v>576597</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>601758</v>
+        <v>602493</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9254317150096593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9003902035681252</v>
+        <v>0.9034477135760705</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.942871298970156</v>
+        <v>0.9440219847194594</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1158</v>
@@ -2159,19 +2159,19 @@
         <v>1193663</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1178063</v>
+        <v>1177226</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1206449</v>
+        <v>1206371</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9524571750357725</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9400093957590521</v>
+        <v>0.9393417737691822</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9626594569571205</v>
+        <v>0.9625968953382443</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>29902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20501</v>
+        <v>20076</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41911</v>
+        <v>42999</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0402572218899489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02760101079579767</v>
+        <v>0.02702798067070055</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05642444107921114</v>
+        <v>0.05788946261588652</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -2284,19 +2284,19 @@
         <v>55081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40708</v>
+        <v>41738</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70568</v>
+        <v>71894</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0703004055923187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05195551376120374</v>
+        <v>0.05327092295639436</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0900665069925375</v>
+        <v>0.09175935408622694</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>78</v>
@@ -2305,19 +2305,19 @@
         <v>84983</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67672</v>
+        <v>68115</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>103624</v>
+        <v>103664</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05567971546609315</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04433732588595213</v>
+        <v>0.04462768265442636</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0678927075048987</v>
+        <v>0.06791882437480291</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>712875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>700866</v>
+        <v>699778</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>722276</v>
+        <v>722701</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9597427781100512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9435755589207889</v>
+        <v>0.9421105373841148</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9723989892042024</v>
+        <v>0.9729720193292994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>696</v>
@@ -2355,19 +2355,19 @@
         <v>728430</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>712943</v>
+        <v>711617</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>742803</v>
+        <v>741773</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9296995944076814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.909933493007462</v>
+        <v>0.908240645913773</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.948044486238796</v>
+        <v>0.9467290770436053</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1402</v>
@@ -2376,19 +2376,19 @@
         <v>1441305</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1422664</v>
+        <v>1422624</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1458616</v>
+        <v>1458173</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9443202845339068</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9321072924951035</v>
+        <v>0.9320811756251971</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9556626741140479</v>
+        <v>0.9553723173455737</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>70100</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02140109842982431</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>211</v>
@@ -2501,19 +2501,19 @@
         <v>218181</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06456586112839455</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>282</v>
@@ -2522,19 +2522,19 @@
         <v>288281</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04331970597573254</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3205425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3187823</v>
+        <v>3187854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3220008</v>
+        <v>3220889</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9785989015701757</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9732251828609008</v>
+        <v>0.9732344361020245</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9830510281134283</v>
+        <v>0.9833197880577643</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3086</v>
@@ -2572,19 +2572,19 @@
         <v>3161016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3131292</v>
+        <v>3127687</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3187609</v>
+        <v>3187552</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9354341388716054</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9266379126210648</v>
+        <v>0.9255711235299322</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9433037944148199</v>
+        <v>0.9432867328377098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6228</v>
@@ -2593,19 +2593,19 @@
         <v>6366441</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6332961</v>
+        <v>6333712</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6397373</v>
+        <v>6401427</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9566802940242675</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9516492513948053</v>
+        <v>0.9517620928508129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9613283370097477</v>
+        <v>0.961937495030536</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>10881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5667</v>
+        <v>5637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19874</v>
+        <v>19784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03749430557338998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01952803980385206</v>
+        <v>0.01942404655992083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06848171338992587</v>
+        <v>0.06817154734857366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2962,19 +2962,19 @@
         <v>21101</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14036</v>
+        <v>13437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31995</v>
+        <v>31082</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07480920520541431</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04976255987362822</v>
+        <v>0.04763722199286273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1134311547122397</v>
+        <v>0.110194317393174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2983,19 +2983,19 @@
         <v>31982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21626</v>
+        <v>22117</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44937</v>
+        <v>44757</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05588642862515383</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03778973217259581</v>
+        <v>0.03864737709123335</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07852459618134232</v>
+        <v>0.07821023463336262</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>279322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270329</v>
+        <v>270419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284536</v>
+        <v>284566</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.96250569442661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9315182866100739</v>
+        <v>0.9318284526514254</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9804719601961477</v>
+        <v>0.9805759534400791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -3033,19 +3033,19 @@
         <v>260964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250070</v>
+        <v>250983</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268029</v>
+        <v>268628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9251907947945857</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8865688452877604</v>
+        <v>0.889805682606826</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9502374401263718</v>
+        <v>0.9523627780071373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>499</v>
@@ -3054,19 +3054,19 @@
         <v>540287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>527332</v>
+        <v>527512</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>550643</v>
+        <v>550152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9441135713748462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9214754038186579</v>
+        <v>0.9217897653666374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9622102678274043</v>
+        <v>0.9613526229087667</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>12523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6125</v>
+        <v>5452</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24512</v>
+        <v>24921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0248233029031731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01214092260488108</v>
+        <v>0.01080669343153811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04858803997927321</v>
+        <v>0.04939947499538929</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -3179,19 +3179,19 @@
         <v>42784</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30459</v>
+        <v>30806</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56290</v>
+        <v>57150</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08184774788475001</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05826955801931218</v>
+        <v>0.05893214295118965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1076842526745666</v>
+        <v>0.1093305691165333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -3200,19 +3200,19 @@
         <v>55307</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41590</v>
+        <v>41889</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72511</v>
+        <v>73558</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0538419415247979</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04048825570507258</v>
+        <v>0.04077875662800623</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07058939601421516</v>
+        <v>0.07160873336984937</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>491963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479974</v>
+        <v>479565</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498361</v>
+        <v>499034</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9751766970968269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9514119600207269</v>
+        <v>0.9506005250046109</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9878590773951189</v>
+        <v>0.9891933065684619</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>439</v>
@@ -3250,19 +3250,19 @@
         <v>479947</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>466441</v>
+        <v>465581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492272</v>
+        <v>491925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.91815225211525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8923157473254334</v>
+        <v>0.8906694308834666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9417304419806878</v>
+        <v>0.9410678570488104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>902</v>
@@ -3271,19 +3271,19 @@
         <v>971910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>954706</v>
+        <v>953659</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>985627</v>
+        <v>985328</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9461580584752021</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9294106039857849</v>
+        <v>0.9283912666301507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9595117442949275</v>
+        <v>0.9592212433719939</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>12955</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6969</v>
+        <v>7036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23532</v>
+        <v>22766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04009425880658769</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0215690274392849</v>
+        <v>0.02177528935953347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07282731649239547</v>
+        <v>0.07045906835875207</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3396,19 +3396,19 @@
         <v>30737</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21157</v>
+        <v>21906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43410</v>
+        <v>42843</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09013212779914793</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06204068568061698</v>
+        <v>0.06423590507203729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1272953191754809</v>
+        <v>0.1256323193868839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -3417,19 +3417,19 @@
         <v>43692</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31726</v>
+        <v>30661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58578</v>
+        <v>58054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06578765801629133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04777074801664242</v>
+        <v>0.04616729066476683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08820242108743312</v>
+        <v>0.08741322615646289</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>310161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299584</v>
+        <v>300350</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316147</v>
+        <v>316080</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9599057411934123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9271726835076046</v>
+        <v>0.9295409316412482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9784309725607151</v>
+        <v>0.9782247106404666</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -3467,19 +3467,19 @@
         <v>310283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297610</v>
+        <v>298177</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319863</v>
+        <v>319114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9098678722008521</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8727046808245191</v>
+        <v>0.8743676806131161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.937959314319383</v>
+        <v>0.9357640949279628</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>594</v>
@@ -3488,19 +3488,19 @@
         <v>620444</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605558</v>
+        <v>606082</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>632410</v>
+        <v>633475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9342123419837087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9117975789125662</v>
+        <v>0.9125867738435371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9522292519833575</v>
+        <v>0.9538327093352332</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>5251</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2049</v>
+        <v>2028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11535</v>
+        <v>10863</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0140399057522941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005477679194930242</v>
+        <v>0.005422467974195779</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03084382330659009</v>
+        <v>0.02904623983104898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3613,19 +3613,19 @@
         <v>39444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29185</v>
+        <v>28949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52413</v>
+        <v>52056</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1016665398189063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07522337601623362</v>
+        <v>0.07461641416408703</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1350944441005932</v>
+        <v>0.1341730547821258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3634,19 +3634,19 @@
         <v>44695</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33411</v>
+        <v>33039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58613</v>
+        <v>59813</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05865778428952416</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04384919659495255</v>
+        <v>0.04336033909996035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07692442849551663</v>
+        <v>0.07849990128947702</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>368731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362447</v>
+        <v>363119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371933</v>
+        <v>371954</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9859600942477059</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9691561766934099</v>
+        <v>0.9709537601689511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9945223208050697</v>
+        <v>0.9945775320258042</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -3684,19 +3684,19 @@
         <v>348530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335561</v>
+        <v>335918</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358789</v>
+        <v>359025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8983334601810937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8649055558994068</v>
+        <v>0.8658269452178741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9247766239837664</v>
+        <v>0.925383585835913</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>670</v>
@@ -3705,19 +3705,19 @@
         <v>717261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>703343</v>
+        <v>702143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>728545</v>
+        <v>728917</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9413422157104758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9230755715044834</v>
+        <v>0.9215000987105232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9561508034050475</v>
+        <v>0.9566396609000399</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>6277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2201</v>
+        <v>2238</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12695</v>
+        <v>12766</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02952235468319919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0103538272058114</v>
+        <v>0.01052620956383993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05970939174040537</v>
+        <v>0.06004171517533229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3830,19 +3830,19 @@
         <v>33539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24189</v>
+        <v>23469</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46102</v>
+        <v>45453</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1527334463027903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1101528048639732</v>
+        <v>0.1068780005849712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2099449436246237</v>
+        <v>0.2069879908372997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -3851,19 +3851,19 @@
         <v>39816</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28765</v>
+        <v>29081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52574</v>
+        <v>52910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09212180160717398</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06655258042718556</v>
+        <v>0.06728373744934729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1216409380293678</v>
+        <v>0.1224179252351286</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>206341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199923</v>
+        <v>199852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210417</v>
+        <v>210380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9704776453168008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9402906082595947</v>
+        <v>0.9399582848246677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9896461727941885</v>
+        <v>0.9894737904361601</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -3901,19 +3901,19 @@
         <v>186052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173489</v>
+        <v>174138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195402</v>
+        <v>196122</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8472665536972097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7900550563753763</v>
+        <v>0.7930120091627003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8898471951360268</v>
+        <v>0.8931219994150288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>370</v>
@@ -3922,19 +3922,19 @@
         <v>392393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379635</v>
+        <v>379299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403444</v>
+        <v>403128</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.907878198392826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8783590619706321</v>
+        <v>0.8775820747648715</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9334474195728144</v>
+        <v>0.9327162625506528</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>10100</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4966</v>
+        <v>5071</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17343</v>
+        <v>17934</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03686299525469224</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.018123663506465</v>
+        <v>0.01850838100669899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06330047961242373</v>
+        <v>0.06545880155481699</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -4047,19 +4047,19 @@
         <v>24477</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16309</v>
+        <v>16043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34836</v>
+        <v>34622</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08768708627157419</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0584275420987566</v>
+        <v>0.05747266640269014</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1247982510105155</v>
+        <v>0.1240313315168902</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -4068,19 +4068,19 @@
         <v>34577</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23992</v>
+        <v>24751</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46443</v>
+        <v>46744</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06251207786031178</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04337479598954937</v>
+        <v>0.04474732112519147</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08396493918898663</v>
+        <v>0.08450891179087447</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>263881</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256638</v>
+        <v>256047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269015</v>
+        <v>268910</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9631370047453077</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9366995203875764</v>
+        <v>0.9345411984451831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.981876336493535</v>
+        <v>0.9814916189933011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>244</v>
@@ -4118,19 +4118,19 @@
         <v>254663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244304</v>
+        <v>244518</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262831</v>
+        <v>263097</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9123129137284258</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8752017489894841</v>
+        <v>0.8759686684831098</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9415724579012434</v>
+        <v>0.9425273335973099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>495</v>
@@ -4139,19 +4139,19 @@
         <v>518544</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506678</v>
+        <v>506377</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>529129</v>
+        <v>528370</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9374879221396882</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9160350608110137</v>
+        <v>0.9154910882091257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9566252040104507</v>
+        <v>0.9552526788748086</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>28716</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18993</v>
+        <v>19279</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40537</v>
+        <v>41627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04332597816776308</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02865609759781934</v>
+        <v>0.0290870565563566</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06116139122920792</v>
+        <v>0.0628057871422617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -4264,19 +4264,19 @@
         <v>50177</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38097</v>
+        <v>37356</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65698</v>
+        <v>66377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07242902373014569</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05499142026755344</v>
+        <v>0.05392250014076053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09483356064826139</v>
+        <v>0.09581370242275558</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -4285,19 +4285,19 @@
         <v>78893</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60481</v>
+        <v>61236</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99307</v>
+        <v>98721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05819937618434026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04461705308321432</v>
+        <v>0.04517356954332662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0732586249023978</v>
+        <v>0.07282685006078259</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>634072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>622251</v>
+        <v>621161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>643795</v>
+        <v>643509</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9566740218322369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9388386087707921</v>
+        <v>0.9371942128577377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9713439024021806</v>
+        <v>0.9709129434436433</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>589</v>
@@ -4335,19 +4335,19 @@
         <v>642596</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>627075</v>
+        <v>626396</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>654676</v>
+        <v>655417</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9275709762698543</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9051664393517386</v>
+        <v>0.9041862975772446</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9450085797324467</v>
+        <v>0.9460774998592396</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1181</v>
@@ -4356,19 +4356,19 @@
         <v>1276668</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1256254</v>
+        <v>1256840</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1295080</v>
+        <v>1294325</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9418006238156598</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9267413750976021</v>
+        <v>0.9271731499392167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9553829469167856</v>
+        <v>0.9548264304566734</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>21130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12433</v>
+        <v>12474</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33294</v>
+        <v>32726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02719507698777351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01600162916941062</v>
+        <v>0.01605494301446098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04285154882706782</v>
+        <v>0.0421195494928686</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -4481,19 +4481,19 @@
         <v>54346</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40647</v>
+        <v>40778</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71070</v>
+        <v>69478</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06615320058444833</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04947800102682764</v>
+        <v>0.0496371697944372</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08651024534100631</v>
+        <v>0.08457233063750323</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -4502,19 +4502,19 @@
         <v>75476</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59975</v>
+        <v>59658</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93709</v>
+        <v>95255</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04721700325525474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03751974385968095</v>
+        <v>0.03732168231336466</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05862310975724423</v>
+        <v>0.05959084118528633</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>755842</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>743678</v>
+        <v>744246</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764539</v>
+        <v>764498</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9728049230122265</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.957148451172932</v>
+        <v>0.9578804505071312</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9839983708305893</v>
+        <v>0.983945056985539</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>704</v>
@@ -4552,19 +4552,19 @@
         <v>767174</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>750450</v>
+        <v>752042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>780873</v>
+        <v>780742</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9338467994155517</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9134897546589943</v>
+        <v>0.9154276693624961</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9505219989731726</v>
+        <v>0.9503628302055627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1401</v>
@@ -4573,19 +4573,19 @@
         <v>1523016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1504783</v>
+        <v>1503237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1538517</v>
+        <v>1538834</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9527829967447453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9413768902427561</v>
+        <v>0.9404091588147142</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9624802561403192</v>
+        <v>0.9626783176866355</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>107832</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>86787</v>
+        <v>85970</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>132308</v>
+        <v>129924</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03154699536532063</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02538995448569331</v>
+        <v>0.02515105171171897</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03870741165667632</v>
+        <v>0.03801009333163842</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>281</v>
@@ -4698,19 +4698,19 @@
         <v>296605</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>262999</v>
+        <v>264561</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>329649</v>
+        <v>329977</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08362580029635214</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07415071258014891</v>
+        <v>0.07459121020473394</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09294212985307433</v>
+        <v>0.09303465425225178</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>376</v>
@@ -4719,19 +4719,19 @@
         <v>404437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>366093</v>
+        <v>369625</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>449085</v>
+        <v>449055</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05806743999953558</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05256217387374502</v>
+        <v>0.05306928403960113</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06447780230015633</v>
+        <v>0.06447346357131743</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3310315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3285839</v>
+        <v>3288223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3331360</v>
+        <v>3332177</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9684530046346793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9612925883433239</v>
+        <v>0.9619899066683617</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9746100455143067</v>
+        <v>0.9748489482882811</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3006</v>
@@ -4769,19 +4769,19 @@
         <v>3250210</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3217166</v>
+        <v>3216838</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3283816</v>
+        <v>3282254</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9163741997036479</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9070578701469256</v>
+        <v>0.9069653457477481</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9258492874198512</v>
+        <v>0.9254087897952655</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6112</v>
@@ -4790,19 +4790,19 @@
         <v>6560524</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6515876</v>
+        <v>6515906</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6598868</v>
+        <v>6595336</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9419325600004644</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9355221976998437</v>
+        <v>0.9355265364286828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9474378261262549</v>
+        <v>0.946930715960399</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>8194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3591</v>
+        <v>3553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15095</v>
+        <v>15269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02789361296027261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01222252728059291</v>
+        <v>0.0120948853176385</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05138564484532904</v>
+        <v>0.05197857412620882</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -5159,19 +5159,19 @@
         <v>24668</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16451</v>
+        <v>16197</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34815</v>
+        <v>37503</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0854439159134371</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05698404940646412</v>
+        <v>0.05610426504488752</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1205895058487076</v>
+        <v>0.1299027957008567</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -5180,19 +5180,19 @@
         <v>32862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22872</v>
+        <v>22273</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45093</v>
+        <v>44654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05641888677226913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03926732804452851</v>
+        <v>0.03823921435543907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07741680642162559</v>
+        <v>0.0766635356541332</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>285567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278666</v>
+        <v>278492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290170</v>
+        <v>290208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9721063870397274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9486143551546707</v>
+        <v>0.9480214258737912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.987777472719407</v>
+        <v>0.9879051146823615</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -5230,19 +5230,19 @@
         <v>264035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253888</v>
+        <v>251200</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272252</v>
+        <v>272506</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9145560840865629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8794104941512926</v>
+        <v>0.8700972042991422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9430159505935363</v>
+        <v>0.9438957349551125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>511</v>
@@ -5251,19 +5251,19 @@
         <v>549602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>537371</v>
+        <v>537810</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>559592</v>
+        <v>560191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9435811132277309</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9225831935783743</v>
+        <v>0.9233364643458669</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9607326719554714</v>
+        <v>0.9617607856445611</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>7458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3231</v>
+        <v>3152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14647</v>
+        <v>14807</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0148398932317364</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006429205657337235</v>
+        <v>0.006272604546622221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02914449784114647</v>
+        <v>0.02946244880913915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -5376,19 +5376,19 @@
         <v>33466</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22451</v>
+        <v>22854</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44569</v>
+        <v>46760</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06397820474086542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04292084006277896</v>
+        <v>0.04369150152414456</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08520454994284117</v>
+        <v>0.08939286895994211</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -5397,19 +5397,19 @@
         <v>40924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29178</v>
+        <v>29350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54970</v>
+        <v>55562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03990032313786483</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02844760334573107</v>
+        <v>0.02861598107614476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05359432451459574</v>
+        <v>0.0541722647317552</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>495117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487928</v>
+        <v>487768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499344</v>
+        <v>499423</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9851601067682636</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9708555021588531</v>
+        <v>0.9705375511908608</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9935707943426627</v>
+        <v>0.9937273954533777</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>454</v>
@@ -5447,19 +5447,19 @@
         <v>489618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478515</v>
+        <v>476324</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500633</v>
+        <v>500230</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9360217952591345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9147954500571588</v>
+        <v>0.9106071310400577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9570791599372209</v>
+        <v>0.9563084984758553</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>922</v>
@@ -5468,19 +5468,19 @@
         <v>984735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>970689</v>
+        <v>970097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>996481</v>
+        <v>996309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9600996768621352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9464056754854043</v>
+        <v>0.9458277352682449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.971552396654269</v>
+        <v>0.9713840189238553</v>
       </c>
     </row>
     <row r="9">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7157</v>
+        <v>8248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007056991886285145</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02246755868023029</v>
+        <v>0.02589070297899983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5593,19 +5593,19 @@
         <v>14074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7399</v>
+        <v>7928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23924</v>
+        <v>24224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04184746571327525</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02200135938842702</v>
+        <v>0.02357267891499681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07113670821288033</v>
+        <v>0.07202928265495831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5614,19 +5614,19 @@
         <v>16322</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9491</v>
+        <v>10047</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26557</v>
+        <v>27225</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02492355788050757</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01449343307739339</v>
+        <v>0.01534174068285915</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0405529594848886</v>
+        <v>0.04157221931120299</v>
       </c>
     </row>
     <row r="11">
@@ -5643,7 +5643,7 @@
         <v>316317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311408</v>
+        <v>310317</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5652,7 +5652,7 @@
         <v>0.9929430081137148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9775324413197696</v>
+        <v>0.9741092970210002</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5664,19 +5664,19 @@
         <v>322235</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312385</v>
+        <v>312085</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328910</v>
+        <v>328381</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9581525342867248</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9288632917871202</v>
+        <v>0.9279707173450412</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9779986406115732</v>
+        <v>0.9764273210850026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>652</v>
@@ -5685,19 +5685,19 @@
         <v>638552</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628317</v>
+        <v>627649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645383</v>
+        <v>644827</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9750764421194924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9594470405151113</v>
+        <v>0.9584277806887966</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9855065669226065</v>
+        <v>0.9846582593171408</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>6859</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2822</v>
+        <v>2849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13153</v>
+        <v>13330</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01853940397066459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007628419228824697</v>
+        <v>0.007701295232374818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03555296812851337</v>
+        <v>0.03602987750083009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -5810,19 +5810,19 @@
         <v>27370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18271</v>
+        <v>17989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38577</v>
+        <v>37934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07067107166724933</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04717711404706774</v>
+        <v>0.04644870950120263</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09960820202623159</v>
+        <v>0.09795032661578033</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -5831,19 +5831,19 @@
         <v>34229</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23546</v>
+        <v>24622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46839</v>
+        <v>48021</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04520138973044514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03109469574074002</v>
+        <v>0.03251528713823838</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06185424516087201</v>
+        <v>0.0634147247479343</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>363105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356811</v>
+        <v>356634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367142</v>
+        <v>367115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9814605960293354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9644470318714865</v>
+        <v>0.9639701224991694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923715807711753</v>
+        <v>0.9922987047676252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -5881,19 +5881,19 @@
         <v>359913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348706</v>
+        <v>349349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369012</v>
+        <v>369294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9293289283327507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9003917979737683</v>
+        <v>0.9020496733842195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9528228859529322</v>
+        <v>0.9535512904987973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>679</v>
@@ -5902,19 +5902,19 @@
         <v>723018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>710408</v>
+        <v>709226</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733701</v>
+        <v>732625</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9547986102695548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.938145754839128</v>
+        <v>0.9365852752520657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9689053042592599</v>
+        <v>0.9674847128617616</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>11715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5925</v>
+        <v>5929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19300</v>
+        <v>19360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05546165508877967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02805264429752895</v>
+        <v>0.02806973857804327</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09137147909588919</v>
+        <v>0.09165743460671888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6027,19 +6027,19 @@
         <v>19960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12870</v>
+        <v>12148</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29265</v>
+        <v>28991</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09131480700744093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05887809802598622</v>
+        <v>0.05557441500274585</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1338836942095724</v>
+        <v>0.1326285612811908</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -6048,19 +6048,19 @@
         <v>31675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22390</v>
+        <v>22308</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43130</v>
+        <v>43637</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0736954547160401</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05209202466901044</v>
+        <v>0.05190137784102533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1003474455455011</v>
+        <v>0.1015276298920449</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>199506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191921</v>
+        <v>191861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205296</v>
+        <v>205292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9445383449112204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9086285209041107</v>
+        <v>0.9083425653932811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.971947355702471</v>
+        <v>0.9719302614219567</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -6098,19 +6098,19 @@
         <v>198627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189322</v>
+        <v>189596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205717</v>
+        <v>206439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.908685192992559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8661163057904276</v>
+        <v>0.8673714387188092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9411219019740137</v>
+        <v>0.9444255849972542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -6119,19 +6119,19 @@
         <v>398133</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386678</v>
+        <v>386171</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407418</v>
+        <v>407500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9263045452839599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.899652554454499</v>
+        <v>0.898472370107955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9479079753309897</v>
+        <v>0.9480986221589747</v>
       </c>
     </row>
     <row r="18">
@@ -6226,16 +6226,16 @@
         <v>793</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9077</v>
+        <v>7652</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01051675718795667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003014541548960709</v>
+        <v>0.003015094145688949</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03449775201525203</v>
+        <v>0.02908235690990503</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -6244,19 +6244,19 @@
         <v>23199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14442</v>
+        <v>15022</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33150</v>
+        <v>32319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08494159676030329</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05288004213834872</v>
+        <v>0.05500409314591355</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1213756837070899</v>
+        <v>0.1183339227954682</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -6265,19 +6265,19 @@
         <v>25966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17688</v>
+        <v>17482</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36864</v>
+        <v>38401</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04842257532607882</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03298546146673121</v>
+        <v>0.03260036809569825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06874504504535044</v>
+        <v>0.07161229293667552</v>
       </c>
     </row>
     <row r="20">
@@ -6294,7 +6294,7 @@
         <v>260356</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254046</v>
+        <v>255471</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>262330</v>
@@ -6303,10 +6303,10 @@
         <v>0.9894832428120434</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.965502247984748</v>
+        <v>0.970917643090095</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969854584510394</v>
+        <v>0.996984905854311</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -6315,19 +6315,19 @@
         <v>249916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239965</v>
+        <v>240796</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258673</v>
+        <v>258093</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9150584032396967</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.87862431629291</v>
+        <v>0.8816660772045314</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.947119957861651</v>
+        <v>0.9449959068540864</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -6336,19 +6336,19 @@
         <v>510272</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>499374</v>
+        <v>497837</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518550</v>
+        <v>518756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9515774246739211</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9312549549546496</v>
+        <v>0.9283877070633244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9670145385332688</v>
+        <v>0.9673996319043018</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>9534</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4303</v>
+        <v>4473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19029</v>
+        <v>18321</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01452060450984973</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006554504624158579</v>
+        <v>0.006813525862523005</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02898339047718971</v>
+        <v>0.0279052807720232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -6461,19 +6461,19 @@
         <v>36867</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26085</v>
+        <v>25401</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51059</v>
+        <v>50533</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05333011730980255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03773421475292759</v>
+        <v>0.03674439604769403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07386069194183612</v>
+        <v>0.0730984359921516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -6482,19 +6482,19 @@
         <v>46400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32603</v>
+        <v>33835</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62824</v>
+        <v>60802</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03442544822318775</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02418915331400056</v>
+        <v>0.02510262804380545</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04661020615633327</v>
+        <v>0.04511062833747084</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>647024</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>637529</v>
+        <v>638237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>652255</v>
+        <v>652085</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9854793954901503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9710166095228095</v>
+        <v>0.9720947192279767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9934454953758414</v>
+        <v>0.993186474137477</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>614</v>
@@ -6532,19 +6532,19 @@
         <v>654427</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>640235</v>
+        <v>640761</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>665209</v>
+        <v>665893</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9466698826901975</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.926139308058164</v>
+        <v>0.9269015640078486</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9622657852470725</v>
+        <v>0.963255603952306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1186</v>
@@ -6553,19 +6553,19 @@
         <v>1301452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1285028</v>
+        <v>1287050</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1315249</v>
+        <v>1314017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9655745517768123</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9533897938436667</v>
+        <v>0.9548893716625292</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9758108466859994</v>
+        <v>0.9748973719561946</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>25432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17282</v>
+        <v>17522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37112</v>
+        <v>36965</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03266465654411835</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02219734918719409</v>
+        <v>0.022504400792047</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04766659306428414</v>
+        <v>0.04747663881998854</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -6678,19 +6678,19 @@
         <v>72088</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55705</v>
+        <v>56339</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92307</v>
+        <v>93763</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08725627724209324</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06742560432414114</v>
+        <v>0.0681927546670698</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.111729168578884</v>
+        <v>0.113491353084409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -6699,19 +6699,19 @@
         <v>97520</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>78727</v>
+        <v>77997</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>120376</v>
+        <v>119073</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06076984155119158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04905886532255185</v>
+        <v>0.04860360027704411</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07501223335519819</v>
+        <v>0.07420011217763896</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>753151</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>741471</v>
+        <v>741618</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>761301</v>
+        <v>761061</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9673353434558817</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9523334069357158</v>
+        <v>0.9525233611800116</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9778026508128057</v>
+        <v>0.9774955992079531</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>695</v>
@@ -6749,19 +6749,19 @@
         <v>754079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>733860</v>
+        <v>732404</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>770462</v>
+        <v>769828</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9127437227579067</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8882708314211161</v>
+        <v>0.8865086469155909</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9325743956758588</v>
+        <v>0.9318072453329301</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1419</v>
@@ -6770,19 +6770,19 @@
         <v>1507230</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1484374</v>
+        <v>1485677</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1526023</v>
+        <v>1526753</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9392301584488084</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9249877666448018</v>
+        <v>0.9257998878223611</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9509411346774482</v>
+        <v>0.9513963997229559</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>74207</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58795</v>
+        <v>59990</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>94802</v>
+        <v>93511</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02186187853666031</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01732134187047071</v>
+        <v>0.01767339873282708</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02792932627635689</v>
+        <v>0.02754892388969554</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -6895,19 +6895,19 @@
         <v>251691</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>220800</v>
+        <v>220349</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>282448</v>
+        <v>285672</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07100815138412862</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06229299708715007</v>
+        <v>0.06216570752465153</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07968540229842778</v>
+        <v>0.08059476433475893</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>300</v>
@@ -6916,19 +6916,19 @@
         <v>325898</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>289720</v>
+        <v>290895</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>364473</v>
+        <v>367374</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04696689812950272</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04175302855274349</v>
+        <v>0.04192243259504641</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05252616199498613</v>
+        <v>0.05294411666640923</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3320143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3299548</v>
+        <v>3300839</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3335555</v>
+        <v>3334360</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9781381214633397</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9720706737236435</v>
+        <v>0.9724510761103045</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9826786581295295</v>
+        <v>0.9823266012671731</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3111</v>
@@ -6966,19 +6966,19 @@
         <v>3292851</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3262094</v>
+        <v>3258870</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3323742</v>
+        <v>3324193</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9289918486158714</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9203145977015722</v>
+        <v>0.9194052356652411</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.93770700291285</v>
+        <v>0.9378342924753486</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6269</v>
@@ -6987,19 +6987,19 @@
         <v>6612994</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6574419</v>
+        <v>6571518</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6649172</v>
+        <v>6647997</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9530331018704973</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9474738380050139</v>
+        <v>0.9470558833335907</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9582469714472566</v>
+        <v>0.9580775674049535</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>4327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9879</v>
+        <v>9824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01357039787469156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005219360624029503</v>
+        <v>0.005187713718198844</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03098370701687777</v>
+        <v>0.03081267217966682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -7356,19 +7356,19 @@
         <v>14399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9342</v>
+        <v>10001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20285</v>
+        <v>20859</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04555756351559301</v>
+        <v>0.045557563515593</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02955625741321099</v>
+        <v>0.03164246710623698</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06417925832826757</v>
+        <v>0.06599573273697043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -7377,19 +7377,19 @@
         <v>18726</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12427</v>
+        <v>13350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25510</v>
+        <v>26323</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02949383433377315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01957320134080472</v>
+        <v>0.02102678237205189</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04017948947058044</v>
+        <v>0.04146013937410732</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>314518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308966</v>
+        <v>309021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317181</v>
+        <v>317191</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864296021253085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9690162929831225</v>
+        <v>0.9691873278203332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947806393759704</v>
+        <v>0.9948122862818011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>510</v>
@@ -7427,19 +7427,19 @@
         <v>301662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295776</v>
+        <v>295202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306719</v>
+        <v>306060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.954442436484407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9358207416717323</v>
+        <v>0.9340042672630295</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9704437425867889</v>
+        <v>0.9683575328937628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -7448,19 +7448,19 @@
         <v>616180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609396</v>
+        <v>608583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622479</v>
+        <v>621556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9705061656662269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9598205105294199</v>
+        <v>0.958539860625893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9804267986591954</v>
+        <v>0.978973217627948</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>19669</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11614</v>
+        <v>11650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32519</v>
+        <v>30846</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03713548695324188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02192754084320423</v>
+        <v>0.0219947980742998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06139574137934021</v>
+        <v>0.05823735364397861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -7573,19 +7573,19 @@
         <v>51877</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42176</v>
+        <v>40661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63013</v>
+        <v>63639</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09514927694239945</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07735713310772929</v>
+        <v>0.07457893303593054</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1155744532041596</v>
+        <v>0.1167240312639026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -7594,19 +7594,19 @@
         <v>71546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57332</v>
+        <v>57999</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>86524</v>
+        <v>89511</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06656212307901417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05333849710141823</v>
+        <v>0.05395910236137629</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08049734718266928</v>
+        <v>0.0832759075741011</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>509991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>497141</v>
+        <v>498814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>518046</v>
+        <v>518010</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.962864513046758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9386042586206597</v>
+        <v>0.9417626463560215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9780724591567957</v>
+        <v>0.9780052019257002</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>638</v>
@@ -7644,19 +7644,19 @@
         <v>493336</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482200</v>
+        <v>481574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>503037</v>
+        <v>504552</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9048507230576006</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8844255467958407</v>
+        <v>0.8832759687360976</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9226428668922707</v>
+        <v>0.9254210669640694</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1003</v>
@@ -7665,19 +7665,19 @@
         <v>1003327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>988349</v>
+        <v>985362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1017541</v>
+        <v>1016874</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9334378769209857</v>
+        <v>0.9334378769209859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9195026528173307</v>
+        <v>0.9167240924258988</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9466615028985816</v>
+        <v>0.9460408976386238</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>17948</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11671</v>
+        <v>11345</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27046</v>
+        <v>26492</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05688781456052597</v>
+        <v>0.05688781456052595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03699111900817405</v>
+        <v>0.03595897630521129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08572337105055478</v>
+        <v>0.08397007235793078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -7790,19 +7790,19 @@
         <v>34631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25534</v>
+        <v>26706</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43346</v>
+        <v>43714</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09717362281939844</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07164744710483777</v>
+        <v>0.07493600711947873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1216273767334143</v>
+        <v>0.1226606218063154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -7811,19 +7811,19 @@
         <v>52579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41196</v>
+        <v>42492</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65142</v>
+        <v>67089</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07825638527426129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06131448517844941</v>
+        <v>0.06324320193902618</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09695460222956745</v>
+        <v>0.09985227451003707</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>297550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288452</v>
+        <v>289006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303827</v>
+        <v>304153</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9431121854394741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9142766289494452</v>
+        <v>0.9160299276420691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9630088809918261</v>
+        <v>0.9640410236947884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>478</v>
@@ -7861,19 +7861,19 @@
         <v>321750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313035</v>
+        <v>312667</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330847</v>
+        <v>329675</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9028263771806017</v>
+        <v>0.9028263771806014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8783726232665857</v>
+        <v>0.8773393781936846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9283525528951624</v>
+        <v>0.9250639928805213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>815</v>
@@ -7882,19 +7882,19 @@
         <v>619301</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>606738</v>
+        <v>604791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>630684</v>
+        <v>629388</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9217436147257387</v>
+        <v>0.9217436147257388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9030453977704326</v>
+        <v>0.9001477254899629</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9386855148215506</v>
+        <v>0.9367567980609739</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>15926</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8903</v>
+        <v>8171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28714</v>
+        <v>28735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04268175271181746</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02385951605043939</v>
+        <v>0.02189692625776231</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07695085395458461</v>
+        <v>0.07700806633476852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -8007,19 +8007,19 @@
         <v>22645</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15893</v>
+        <v>16182</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31750</v>
+        <v>31953</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05370766686865012</v>
+        <v>0.05370766686865011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03769427001717188</v>
+        <v>0.03838071171694096</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07530345517596705</v>
+        <v>0.07578410489135444</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -8028,19 +8028,19 @@
         <v>38571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28268</v>
+        <v>27711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53237</v>
+        <v>51527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04853102556898437</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03556695213209961</v>
+        <v>0.03486698146571851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06698417829409471</v>
+        <v>0.0648325838040303</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>357219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344431</v>
+        <v>344410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364242</v>
+        <v>364974</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9573182472881826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9230491460454154</v>
+        <v>0.9229919336652317</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9761404839495609</v>
+        <v>0.978103073742238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>558</v>
@@ -8078,19 +8078,19 @@
         <v>398985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>389880</v>
+        <v>389677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405737</v>
+        <v>405448</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9462923331313501</v>
+        <v>0.94629233313135</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.924696544824033</v>
+        <v>0.9242158951086457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9623057299828282</v>
+        <v>0.961619288283059</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>837</v>
@@ -8099,19 +8099,19 @@
         <v>756204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741538</v>
+        <v>743248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>766507</v>
+        <v>767064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9514689744310156</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9330158217059046</v>
+        <v>0.9351674161959698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9644330478679003</v>
+        <v>0.9651330185342816</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>2360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>592</v>
+        <v>726</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6557</v>
+        <v>6084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01147315311923587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002879894379983769</v>
+        <v>0.003530924600937408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03188031616286396</v>
+        <v>0.02958164724610851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -8224,19 +8224,19 @@
         <v>11281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7676</v>
+        <v>7461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15921</v>
+        <v>15803</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04965081830740318</v>
+        <v>0.04965081830740316</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03378278363152352</v>
+        <v>0.03283474236343252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07006852160660718</v>
+        <v>0.06955297190265894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -8245,19 +8245,19 @@
         <v>13641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9415</v>
+        <v>9737</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18637</v>
+        <v>19005</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03151228243750116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02175022253865291</v>
+        <v>0.02249427161633907</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04305309259011908</v>
+        <v>0.04390429165706917</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>203305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199108</v>
+        <v>199581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205073</v>
+        <v>204939</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9885268468807641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9681196838371358</v>
+        <v>0.970418352753892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9971201056200163</v>
+        <v>0.9964690753990626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>464</v>
@@ -8295,19 +8295,19 @@
         <v>215934</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211294</v>
+        <v>211412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219539</v>
+        <v>219754</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9503491816925971</v>
+        <v>0.9503491816925966</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9299314783933941</v>
+        <v>0.930447028097341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9662172163684764</v>
+        <v>0.9671652576365675</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>739</v>
@@ -8316,19 +8316,19 @@
         <v>419238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414242</v>
+        <v>413874</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423464</v>
+        <v>423142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9684877175624989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9569469074098811</v>
+        <v>0.956095708342931</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9782497774613471</v>
+        <v>0.9775057283836611</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>13101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7881</v>
+        <v>8352</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19627</v>
+        <v>20699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04839565811234586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02911318301517909</v>
+        <v>0.03085281522449226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07250151603575561</v>
+        <v>0.07646260001002429</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -8441,19 +8441,19 @@
         <v>16292</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11004</v>
+        <v>11059</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22674</v>
+        <v>22251</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06177039581687931</v>
+        <v>0.06177039581687927</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04172081898091684</v>
+        <v>0.04192904873281414</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08596623424593342</v>
+        <v>0.0843641352367374</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -8462,19 +8462,19 @@
         <v>29393</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22548</v>
+        <v>21485</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40067</v>
+        <v>37890</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05499598177531242</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04218853030188478</v>
+        <v>0.04019881381245284</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0749685256090247</v>
+        <v>0.0708943469949298</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>257606</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251080</v>
+        <v>250008</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262826</v>
+        <v>262355</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9516043418876542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9274984839642443</v>
+        <v>0.9235373999899754</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9708868169848205</v>
+        <v>0.9691471847755078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>426</v>
@@ -8512,19 +8512,19 @@
         <v>247458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241076</v>
+        <v>241499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252746</v>
+        <v>252691</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9382296041831207</v>
+        <v>0.9382296041831206</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9140337657540667</v>
+        <v>0.9156358647632626</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9582791810190832</v>
+        <v>0.958070951267186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>777</v>
@@ -8533,19 +8533,19 @@
         <v>505064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>494390</v>
+        <v>496567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511909</v>
+        <v>512972</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9450040182246876</v>
+        <v>0.9450040182246875</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9250314743909754</v>
+        <v>0.9291056530050703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9578114696981154</v>
+        <v>0.9598011861875471</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>32949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21992</v>
+        <v>22949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45803</v>
+        <v>45714</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04578228356762545</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03055731415352609</v>
+        <v>0.03188714497449425</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06364320703339627</v>
+        <v>0.06351943760336243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -8658,19 +8658,19 @@
         <v>70561</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56491</v>
+        <v>57854</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85600</v>
+        <v>85671</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09139302830801872</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07316924169947103</v>
+        <v>0.07493517519771772</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1108722550305364</v>
+        <v>0.1109649400015706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -8679,19 +8679,19 @@
         <v>103510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85331</v>
+        <v>86222</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>123714</v>
+        <v>122917</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06938826998831392</v>
+        <v>0.06938826998831393</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05720225032975012</v>
+        <v>0.05779949395596706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08293233498590567</v>
+        <v>0.08239851506012345</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>686738</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>673884</v>
+        <v>673973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>697695</v>
+        <v>696738</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9542177164323746</v>
+        <v>0.9542177164323747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9363567929666041</v>
+        <v>0.9364805623966377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9694426858464739</v>
+        <v>0.968112855025506</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>865</v>
@@ -8729,19 +8729,19 @@
         <v>701496</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>686457</v>
+        <v>686386</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>715566</v>
+        <v>714203</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9086069716919811</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8891277449694635</v>
+        <v>0.8890350599984296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9268307583005289</v>
+        <v>0.9250648248022824</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1433</v>
@@ -8750,19 +8750,19 @@
         <v>1388234</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1368030</v>
+        <v>1368827</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1406413</v>
+        <v>1405522</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9306117300116861</v>
+        <v>0.9306117300116863</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9170676650140946</v>
+        <v>0.917601484939877</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9427977496702499</v>
+        <v>0.9422005060440332</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>15474</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9404</v>
+        <v>9205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23750</v>
+        <v>23288</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01938931608425078</v>
+        <v>0.01938931608425079</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01178293334202741</v>
+        <v>0.01153462899015846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02975914471348379</v>
+        <v>0.0291803432923297</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -8875,19 +8875,19 @@
         <v>64572</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52145</v>
+        <v>51358</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78525</v>
+        <v>78124</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07779679277770701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06282502941540663</v>
+        <v>0.06187665624593853</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09460834632641441</v>
+        <v>0.094124615392935</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -8896,19 +8896,19 @@
         <v>80046</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65882</v>
+        <v>66108</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96359</v>
+        <v>95059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04916586757491676</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04046607266472668</v>
+        <v>0.04060497123583928</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05918546581970811</v>
+        <v>0.05838729821456142</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>782598</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>774322</v>
+        <v>774784</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788668</v>
+        <v>788867</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9806106839157491</v>
+        <v>0.980610683915749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9702408552865162</v>
+        <v>0.9708196567076708</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9882170666579727</v>
+        <v>0.9884653710098417</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>969</v>
@@ -8946,19 +8946,19 @@
         <v>765434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>751481</v>
+        <v>751882</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>777861</v>
+        <v>778648</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9222032072222929</v>
+        <v>0.9222032072222931</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9053916536735857</v>
+        <v>0.905875384607065</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9371749705845934</v>
+        <v>0.9381233437540618</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1713</v>
@@ -8967,19 +8967,19 @@
         <v>1548032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1531719</v>
+        <v>1533019</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1562196</v>
+        <v>1561970</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9508341324250833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9408145341802926</v>
+        <v>0.9416127017854385</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9595339273352741</v>
+        <v>0.9593950287641608</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>121754</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>101963</v>
+        <v>101313</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>144919</v>
+        <v>145241</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03447877504063267</v>
+        <v>0.03447877504063266</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.028874175203278</v>
+        <v>0.02869012686092539</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04103873602857809</v>
+        <v>0.04112993669365869</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>451</v>
@@ -9092,19 +9092,19 @@
         <v>286257</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>260436</v>
+        <v>258279</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>316295</v>
+        <v>312387</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07669694002990696</v>
+        <v>0.07669694002990694</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06977869451680188</v>
+        <v>0.06920088941080593</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08474513491205733</v>
+        <v>0.08369801475756017</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>580</v>
@@ -9113,19 +9113,19 @@
         <v>408011</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>377483</v>
+        <v>372553</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>445208</v>
+        <v>442586</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05617209173434062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05196923747121174</v>
+        <v>0.05129042724910409</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06129302740981669</v>
+        <v>0.06093205075749934</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3409526</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3386361</v>
+        <v>3386039</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3429317</v>
+        <v>3429967</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9655212249593674</v>
+        <v>0.9655212249593673</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9589612639714221</v>
+        <v>0.9588700633063409</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9711258247967223</v>
+        <v>0.9713098731390747</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4908</v>
@@ -9163,19 +9163,19 @@
         <v>3446056</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3416018</v>
+        <v>3419926</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3471877</v>
+        <v>3474034</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9233030599700932</v>
+        <v>0.9233030599700931</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9152548650879437</v>
+        <v>0.9163019852424402</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9302213054831984</v>
+        <v>0.9307991105891942</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8153</v>
@@ -9184,19 +9184,19 @@
         <v>6855582</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6818385</v>
+        <v>6821007</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6886110</v>
+        <v>6891040</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9438279082656592</v>
+        <v>0.9438279082656594</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9387069725901829</v>
+        <v>0.9390679492425003</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.948030762528788</v>
+        <v>0.9487095727508955</v>
       </c>
     </row>
     <row r="30">
